--- a/data/mips/48008000133202507_Ian_Anexo.xlsx
+++ b/data/mips/48008000133202507_Ian_Anexo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7cfd6d076248aa8/Documents/Study/UFV/Mestrado/4º Semestre/ERU 799 - Pesquisa/Estimação/mip-energia/data/mips/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7cfd6d076248aa8/Documents/Study/UFV/Mestrado/4º Semestre (2025-2)/ERU 799 - Pesquisa/Estimação/mip-energia/data/mips/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="9" documentId="8_{C3A23828-C411-4763-942C-C4BD2C52C80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94B04882-4D47-4F31-8E87-3AB9EDEEB84D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{45016FF5-F308-4B3B-8571-E9C3D205119B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45016FF5-F308-4B3B-8571-E9C3D205119B}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluxos Monetários" sheetId="1" r:id="rId1"/>
@@ -1312,11 +1312,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038298F3-2AFE-44A9-A8E9-A89B65764BFA}">
   <dimension ref="A1:CU105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28861,9 +28861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4CE3ED-073C-4589-86B9-B4F1A317ED96}">
   <dimension ref="A1:FF12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -31694,7 +31692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5611C-FCAB-449E-84E1-459DDE03DFA8}">
   <dimension ref="A1:BX20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -37509,7 +37509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0E4624-4E0C-48EE-B7A4-0AEB520EE3B3}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
